--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_SOx.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>2.407981700657575</v>
+        <v>0.7530523736296248</v>
       </c>
       <c r="C2">
-        <v>0.05591807999999998</v>
+        <v>0.01748735999999999</v>
       </c>
       <c r="D2">
-        <v>0.230837109533313</v>
+        <v>0.0721900972953376</v>
       </c>
       <c r="E2">
-        <v>0.1774467523737019</v>
+        <v>0.0554932365272516</v>
       </c>
       <c r="F2">
-        <v>0.2378887024477611</v>
+        <v>0.07439535441196977</v>
       </c>
       <c r="G2">
-        <v>0.6021930083648551</v>
+        <v>0.1883248839509374</v>
       </c>
       <c r="H2">
-        <v>0.1224401511229198</v>
+        <v>0.03829092488763743</v>
       </c>
       <c r="I2">
-        <v>3.834705504500126</v>
+        <v>1.199234230702759</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>2.380618272241012</v>
+        <v>0.7444949602929248</v>
       </c>
       <c r="C3">
-        <v>0.05941296000000001</v>
+        <v>0.01858032</v>
       </c>
       <c r="D3">
-        <v>0.2638138394666432</v>
+        <v>0.08250296833752864</v>
       </c>
       <c r="E3">
-        <v>0.1717226635874535</v>
+        <v>0.05370313212314671</v>
       </c>
       <c r="F3">
-        <v>0.2399483448931962</v>
+        <v>0.07503947003458421</v>
       </c>
       <c r="G3">
-        <v>0.6766911124924655</v>
+        <v>0.2116228077386824</v>
       </c>
       <c r="H3">
-        <v>0.1296425129536798</v>
+        <v>0.04054333223396907</v>
       </c>
       <c r="I3">
-        <v>3.921849705634449</v>
+        <v>1.226486990760836</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>2.691193184769009</v>
+        <v>0.8416216016644734</v>
       </c>
       <c r="C4">
-        <v>0.06057791999999998</v>
+        <v>0.01894464</v>
       </c>
       <c r="D4">
-        <v>0.2868975504199743</v>
+        <v>0.08972197806706246</v>
       </c>
       <c r="E4">
-        <v>0.2003431075186956</v>
+        <v>0.0626536541436712</v>
       </c>
       <c r="F4">
-        <v>0.2832008362473348</v>
+        <v>0.0885658981094878</v>
       </c>
       <c r="G4">
-        <v>0.5152785535493093</v>
+        <v>0.1611439728652353</v>
       </c>
       <c r="H4">
-        <v>0.07202361830759982</v>
+        <v>0.02252407346331615</v>
       </c>
       <c r="I4">
-        <v>4.109514770811923</v>
+        <v>1.285175818313246</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>2.9046279264182</v>
+        <v>0.9083694256907349</v>
       </c>
       <c r="C5">
-        <v>0.03844368000000001</v>
+        <v>0.01202256</v>
       </c>
       <c r="D5">
-        <v>0.2934928964066407</v>
+        <v>0.09178455227550075</v>
       </c>
       <c r="E5">
-        <v>0.2117912850911924</v>
+        <v>0.06623386295188098</v>
       </c>
       <c r="F5">
-        <v>0.2461272722295015</v>
+        <v>0.07697181690242755</v>
       </c>
       <c r="G5">
-        <v>0.3476578192621843</v>
+        <v>0.1087236443428093</v>
       </c>
       <c r="H5">
-        <v>0.05041653281531991</v>
+        <v>0.01576685142432131</v>
       </c>
       <c r="I5">
-        <v>4.092557412223039</v>
+        <v>1.279872713587675</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>3.527145922895015</v>
+        <v>1.103050579100667</v>
       </c>
       <c r="C6">
-        <v>0.05708304000000001</v>
+        <v>0.01785168</v>
       </c>
       <c r="D6">
-        <v>0.2077533985799818</v>
+        <v>0.06497108756580389</v>
       </c>
       <c r="E6">
-        <v>0.394962126251143</v>
+        <v>0.1235172038832375</v>
       </c>
       <c r="F6">
-        <v>0.1760994290847061</v>
+        <v>0.05507188573353607</v>
       </c>
       <c r="G6">
-        <v>0.1924534356629949</v>
+        <v>0.06018630311834083</v>
       </c>
       <c r="H6">
-        <v>0.1512495984459598</v>
+        <v>0.04730055427296392</v>
       </c>
       <c r="I6">
-        <v>4.706746950919801</v>
+        <v>1.47194929367455</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>3.521673237211703</v>
+        <v>1.101339096433326</v>
       </c>
       <c r="C7">
-        <v>0.03145391999999999</v>
+        <v>0.009836640000000002</v>
       </c>
       <c r="D7">
-        <v>0.1483952846999868</v>
+        <v>0.04640791968985991</v>
       </c>
       <c r="E7">
-        <v>0.435030747754882</v>
+        <v>0.1360479347119717</v>
       </c>
       <c r="F7">
-        <v>0.1009224798263229</v>
+        <v>0.03156166550810838</v>
       </c>
       <c r="G7">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H7">
-        <v>0.08642834196911983</v>
+        <v>0.02702888815597937</v>
       </c>
       <c r="I7">
-        <v>4.417026641621529</v>
+        <v>1.381344549233927</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>2.459972214649046</v>
+        <v>0.7693114589693556</v>
       </c>
       <c r="C8">
-        <v>0.03261888</v>
+        <v>0.01020096000000001</v>
       </c>
       <c r="D8">
-        <v>0.1286092467399887</v>
+        <v>0.04022019706454529</v>
       </c>
       <c r="E8">
-        <v>0.2804803505261739</v>
+        <v>0.08771511580113964</v>
       </c>
       <c r="F8">
-        <v>0.07723659170381852</v>
+        <v>0.02415433584804215</v>
       </c>
       <c r="G8">
-        <v>0.1117471561914164</v>
+        <v>0.03494688568161722</v>
       </c>
       <c r="H8">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I8">
-        <v>3.097866801641203</v>
+        <v>0.9688013607110315</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>2.00847564577575</v>
+        <v>0.628114138913801</v>
       </c>
       <c r="C9">
-        <v>0.02912399999999999</v>
+        <v>0.009108</v>
       </c>
       <c r="D9">
-        <v>0.0923348438133251</v>
+        <v>0.02887603891813506</v>
       </c>
       <c r="E9">
-        <v>0.4178584813961368</v>
+        <v>0.1306776214996571</v>
       </c>
       <c r="F9">
-        <v>0.04428231257685593</v>
+        <v>0.01384848588621082</v>
       </c>
       <c r="G9">
-        <v>0.06208175343967581</v>
+        <v>0.01941493648978735</v>
       </c>
       <c r="H9">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I9">
-        <v>2.675764122494024</v>
+        <v>0.8367964437465861</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.485834163019391</v>
+        <v>0.4646675441828252</v>
       </c>
       <c r="C10">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D10">
-        <v>0.07254880585332689</v>
+        <v>0.02268831629282038</v>
       </c>
       <c r="E10">
-        <v>0.2747562617399255</v>
+        <v>0.08592501139703479</v>
       </c>
       <c r="F10">
-        <v>0.04016302768598561</v>
+        <v>0.01256025464098191</v>
       </c>
       <c r="G10">
-        <v>0.06208175343967581</v>
+        <v>0.01941493648978735</v>
       </c>
       <c r="H10">
-        <v>0.02880944732303995</v>
+        <v>0.009009629385326462</v>
       </c>
       <c r="I10">
-        <v>1.985162739061344</v>
+        <v>0.6208234523887761</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.139686793549864</v>
+        <v>0.3564162654735668</v>
       </c>
       <c r="C11">
-        <v>0.03378384</v>
+        <v>0.01056528</v>
       </c>
       <c r="D11">
-        <v>0.07254880585332689</v>
+        <v>0.02268831629282038</v>
       </c>
       <c r="E11">
-        <v>0.1259299532974658</v>
+        <v>0.0393822968903076</v>
       </c>
       <c r="F11">
-        <v>0.04119284890870323</v>
+        <v>0.01288231245228914</v>
       </c>
       <c r="G11">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H11">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I11">
-        <v>1.527871957261153</v>
+        <v>0.4778140978826597</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.7018719388848503</v>
+        <v>0.2194976520863622</v>
       </c>
       <c r="C12">
-        <v>0.03145391999999999</v>
+        <v>0.009836640000000002</v>
       </c>
       <c r="D12">
-        <v>0.0164883649666652</v>
+        <v>0.00515643552109554</v>
       </c>
       <c r="E12">
-        <v>0.0457927102899876</v>
+        <v>0.01432083523283913</v>
       </c>
       <c r="F12">
-        <v>0.02471570934522195</v>
+        <v>0.007729387471373483</v>
       </c>
       <c r="G12">
-        <v>0.09933080550348125</v>
+        <v>0.03106389838365978</v>
       </c>
       <c r="I12">
-        <v>0.9196534489902063</v>
+        <v>0.2876048486953302</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.437814854665014</v>
+        <v>0.1369186133872043</v>
       </c>
       <c r="C13">
-        <v>0.03844368000000001</v>
+        <v>0.01202256</v>
       </c>
       <c r="D13">
-        <v>0.01319069197333216</v>
+        <v>0.004125148416876437</v>
       </c>
       <c r="E13">
-        <v>0.0228963551449938</v>
+        <v>0.007160417616419567</v>
       </c>
       <c r="F13">
-        <v>0.03295427912696255</v>
+        <v>0.01030584996183131</v>
       </c>
       <c r="G13">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H13">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I13">
-        <v>0.6456248529005763</v>
+        <v>0.2019074014633443</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2750024555864618</v>
+        <v>0.08600200403383784</v>
       </c>
       <c r="C14">
-        <v>0.03145391999999999</v>
+        <v>0.009836640000000002</v>
       </c>
       <c r="D14">
-        <v>0.01319069197333216</v>
+        <v>0.004125148416876437</v>
       </c>
       <c r="E14">
-        <v>0.01717226635874534</v>
+        <v>0.005370313212314674</v>
       </c>
       <c r="F14">
-        <v>0.02780517301337468</v>
+        <v>0.008695560905295167</v>
       </c>
       <c r="G14">
-        <v>0.1986616110069625</v>
+        <v>0.06212779676731957</v>
       </c>
       <c r="H14">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I14">
-        <v>0.5704884797696363</v>
+        <v>0.1784098706819753</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2038575417033972</v>
+        <v>0.06375272935841711</v>
       </c>
       <c r="C15">
-        <v>0.01980432</v>
+        <v>0.006193440000000003</v>
       </c>
       <c r="D15">
-        <v>0.009893018979999115</v>
+        <v>0.003093861312657323</v>
       </c>
       <c r="F15">
-        <v>0.01853678200891645</v>
+        <v>0.005797040603530111</v>
       </c>
       <c r="G15">
-        <v>0.1552043835991893</v>
+        <v>0.04853734122446839</v>
       </c>
       <c r="H15">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I15">
-        <v>0.4217007699530221</v>
+        <v>0.1318792271917362</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.2148029130700225</v>
+        <v>0.06717569469309723</v>
       </c>
       <c r="C16">
-        <v>0.01048464</v>
+        <v>0.00327888</v>
       </c>
       <c r="D16">
-        <v>0.0329767299333304</v>
+        <v>0.01031287104219108</v>
       </c>
       <c r="E16">
-        <v>0.02862044393124223</v>
+        <v>0.008950522020524456</v>
       </c>
       <c r="F16">
-        <v>0.02162624567706919</v>
+        <v>0.0067632140374518</v>
       </c>
       <c r="G16">
-        <v>0.1800370849750597</v>
+        <v>0.05630331582038337</v>
       </c>
       <c r="H16">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I16">
-        <v>0.4957504194174839</v>
+        <v>0.1550369049599795</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.4911735400773127</v>
+        <v>0.15360556939377</v>
       </c>
       <c r="C17">
-        <v>0.01048464</v>
+        <v>0.00327888</v>
       </c>
       <c r="D17">
-        <v>0.0329767299333304</v>
+        <v>0.01031287104219108</v>
       </c>
       <c r="E17">
-        <v>0.01717226635874534</v>
+        <v>0.005370313212314674</v>
       </c>
       <c r="F17">
-        <v>0.03913320646326802</v>
+        <v>0.01223819682967468</v>
       </c>
       <c r="G17">
-        <v>0.2421188384147356</v>
+        <v>0.07571825231017071</v>
       </c>
       <c r="H17">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I17">
-        <v>0.8474639449089122</v>
+        <v>0.2650288974807843</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.048019308354377</v>
+        <v>0.3277489307956211</v>
       </c>
       <c r="C18">
-        <v>0.01747439999999999</v>
+        <v>0.0054648</v>
       </c>
       <c r="D18">
-        <v>0.06925113285999387</v>
+        <v>0.02165702918860128</v>
       </c>
       <c r="E18">
-        <v>0.1946190187324472</v>
+        <v>0.06086354973956631</v>
       </c>
       <c r="F18">
-        <v>0.0906242675991471</v>
+        <v>0.02834108739503611</v>
       </c>
       <c r="G18">
-        <v>0.3166169425423467</v>
+        <v>0.09901617609791555</v>
       </c>
       <c r="H18">
-        <v>0.04321417098455992</v>
+        <v>0.01351444407798968</v>
       </c>
       <c r="I18">
-        <v>1.779819241072871</v>
+        <v>0.55660601729473</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.827877018226431</v>
+        <v>0.5716352108915786</v>
       </c>
       <c r="C19">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D19">
-        <v>0.1813720146333173</v>
+        <v>0.05672079073205102</v>
       </c>
       <c r="E19">
-        <v>0.5323402571211056</v>
+        <v>0.1664797095817549</v>
       </c>
       <c r="F19">
-        <v>0.1668310380802479</v>
+        <v>0.05217336543177102</v>
       </c>
       <c r="G19">
-        <v>0.4469886247656656</v>
+        <v>0.1397875427264689</v>
       </c>
       <c r="H19">
-        <v>0.07202361830759982</v>
+        <v>0.02252407346331615</v>
       </c>
       <c r="I19">
-        <v>3.248401851134368</v>
+        <v>1.01587845282694</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>3.112589982384084</v>
+        <v>0.9734057670496569</v>
       </c>
       <c r="C20">
-        <v>0.0232992</v>
+        <v>0.007286400000000002</v>
       </c>
       <c r="D20">
-        <v>0.2242417635466466</v>
+        <v>0.07012752308689936</v>
       </c>
       <c r="E20">
-        <v>0.5208920795486087</v>
+        <v>0.1628995007735452</v>
       </c>
       <c r="F20">
-        <v>0.1894871049800347</v>
+        <v>0.05925863728053005</v>
       </c>
       <c r="G20">
-        <v>0.6146093590527905</v>
+        <v>0.1922078712488949</v>
       </c>
       <c r="H20">
-        <v>0.1440472366151996</v>
+        <v>0.04504814692663231</v>
       </c>
       <c r="I20">
-        <v>4.829166726127364</v>
+        <v>1.510233846366159</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>3.280875067145947</v>
+        <v>1.026033859070364</v>
       </c>
       <c r="C21">
-        <v>0.03494879999999998</v>
+        <v>0.0109296</v>
       </c>
       <c r="D21">
-        <v>0.178074341639984</v>
+        <v>0.05568950362783191</v>
       </c>
       <c r="E21">
-        <v>0.3606175935336523</v>
+        <v>0.1127765774586081</v>
       </c>
       <c r="F21">
-        <v>0.1637415744120953</v>
+        <v>0.05120719199784934</v>
       </c>
       <c r="G21">
-        <v>0.5028622028613736</v>
+        <v>0.1572609855672776</v>
       </c>
       <c r="H21">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I21">
-        <v>4.621952645223692</v>
+        <v>1.445431420570574</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>2.639202670777536</v>
+        <v>0.8253625163247429</v>
       </c>
       <c r="C22">
-        <v>0.05009328</v>
+        <v>0.01566576</v>
       </c>
       <c r="D22">
-        <v>0.3099812613733057</v>
+        <v>0.09694098779659616</v>
       </c>
       <c r="E22">
-        <v>0.2804803505261739</v>
+        <v>0.08771511580113964</v>
       </c>
       <c r="F22">
-        <v>0.2749622664655941</v>
+        <v>0.08598943561903001</v>
       </c>
       <c r="G22">
-        <v>0.8877690741873638</v>
+        <v>0.2776335918039593</v>
       </c>
       <c r="H22">
-        <v>0.1224401511229198</v>
+        <v>0.03829092488763743</v>
       </c>
       <c r="I22">
-        <v>4.564929054452893</v>
+        <v>1.427598332233106</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>2.072779702554676</v>
+        <v>0.648224060255047</v>
       </c>
       <c r="C23">
-        <v>0.05009328</v>
+        <v>0.01566576</v>
       </c>
       <c r="D23">
-        <v>0.2506231474933111</v>
+        <v>0.07837781992065231</v>
       </c>
       <c r="E23">
-        <v>0.1717226635874535</v>
+        <v>0.05370313212314671</v>
       </c>
       <c r="F23">
-        <v>0.2708429815747235</v>
+        <v>0.08470120437380106</v>
       </c>
       <c r="G23">
-        <v>0.8629363728114934</v>
+        <v>0.2698676172080444</v>
       </c>
       <c r="H23">
-        <v>0.07202361830759982</v>
+        <v>0.02252407346331615</v>
       </c>
       <c r="I23">
-        <v>3.751021766329257</v>
+        <v>1.173063667344007</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>2.354623015245278</v>
+        <v>0.7363654176230596</v>
       </c>
       <c r="C24">
-        <v>0.05125823999999997</v>
+        <v>0.01603008000000001</v>
       </c>
       <c r="D24">
-        <v>0.2605161664733102</v>
+        <v>0.08147168123330953</v>
       </c>
       <c r="E24">
-        <v>0.2633080841674287</v>
+        <v>0.08234480258882504</v>
       </c>
       <c r="F24">
-        <v>0.2811411938018993</v>
+        <v>0.08792178248687338</v>
       </c>
       <c r="G24">
-        <v>0.7636055673080121</v>
+        <v>0.2388037188243846</v>
       </c>
       <c r="H24">
-        <v>0.1512495984459598</v>
+        <v>0.04730055427296392</v>
       </c>
       <c r="I24">
-        <v>4.125701865441888</v>
+        <v>1.290238037029416</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>2.258851015787305</v>
+        <v>0.7064144709446086</v>
       </c>
       <c r="C25">
-        <v>0.04776335999999998</v>
+        <v>0.01493712</v>
       </c>
       <c r="D25">
-        <v>0.1879673606199834</v>
+        <v>0.0587833649404892</v>
       </c>
       <c r="E25">
-        <v>0.2518599065949317</v>
+        <v>0.07876459378061521</v>
       </c>
       <c r="F25">
-        <v>0.1894871049800347</v>
+        <v>0.05925863728053005</v>
       </c>
       <c r="G25">
-        <v>0.6704829371484987</v>
+        <v>0.2096813140897035</v>
       </c>
       <c r="H25">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I25">
-        <v>3.700042388930633</v>
+        <v>1.157120796538258</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>2.272532729995585</v>
+        <v>0.7106931776129584</v>
       </c>
       <c r="C26">
-        <v>0.04193856</v>
+        <v>0.01311552</v>
       </c>
       <c r="D26">
-        <v>0.178074341639984</v>
+        <v>0.05568950362783191</v>
       </c>
       <c r="E26">
-        <v>0.1774467523737019</v>
+        <v>0.0554932365272516</v>
       </c>
       <c r="F26">
-        <v>0.2409781661159139</v>
+        <v>0.07536152784589147</v>
       </c>
       <c r="G26">
-        <v>0.7015238138683355</v>
+        <v>0.2193887823345972</v>
       </c>
       <c r="H26">
-        <v>0.1512495984459598</v>
+        <v>0.04730055427296392</v>
       </c>
       <c r="I26">
-        <v>3.76374396243948</v>
+        <v>1.177042302221494</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>2.45039501470325</v>
+        <v>0.76631636430151</v>
       </c>
       <c r="C27">
-        <v>0.04543344000000001</v>
+        <v>0.01420848</v>
       </c>
       <c r="D27">
-        <v>0.2835998774266411</v>
+        <v>0.08869069096284346</v>
       </c>
       <c r="E27">
-        <v>0.2575839953811802</v>
+        <v>0.08055469818472009</v>
       </c>
       <c r="F27">
-        <v>0.2327395963341731</v>
+        <v>0.07278506535543365</v>
       </c>
       <c r="G27">
-        <v>0.5463194302691469</v>
+        <v>0.1708514411101289</v>
       </c>
       <c r="H27">
-        <v>0.1080354274613998</v>
+        <v>0.03378611019497421</v>
       </c>
       <c r="I27">
-        <v>3.924106781575792</v>
+        <v>1.22719285010961</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>2.517435414323829</v>
+        <v>0.7872820269764266</v>
       </c>
       <c r="C28">
-        <v>0.03960864</v>
+        <v>0.01238688000000001</v>
       </c>
       <c r="D28">
-        <v>0.2934928964066407</v>
+        <v>0.09178455227550075</v>
       </c>
       <c r="E28">
-        <v>0.2060671963049441</v>
+        <v>0.06444375854777611</v>
       </c>
       <c r="F28">
-        <v>0.2275904902205853</v>
+        <v>0.0711747762988974</v>
       </c>
       <c r="G28">
-        <v>0.6456502357726277</v>
+        <v>0.2019153394937884</v>
       </c>
       <c r="H28">
-        <v>0.1080354274613998</v>
+        <v>0.03378611019497421</v>
       </c>
       <c r="I28">
-        <v>4.037880300490026</v>
+        <v>1.262773443787363</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>2.90599609783903</v>
+        <v>0.9087972963575702</v>
       </c>
       <c r="C29">
-        <v>0.03844368000000001</v>
+        <v>0.01202256</v>
       </c>
       <c r="D29">
-        <v>0.2209440905533138</v>
+        <v>0.06909623598268028</v>
       </c>
       <c r="E29">
-        <v>0.2804803505261739</v>
+        <v>0.08771511580113964</v>
       </c>
       <c r="F29">
-        <v>0.2131729931025392</v>
+        <v>0.06666596694059627</v>
       </c>
       <c r="G29">
-        <v>0.4407804494216984</v>
+        <v>0.1378460490774903</v>
       </c>
       <c r="H29">
-        <v>0.1368448747844398</v>
+        <v>0.04279573958030068</v>
       </c>
       <c r="I29">
-        <v>4.236662536227195</v>
+        <v>1.324938963739777</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>3.473787237482718</v>
+        <v>1.086363623094101</v>
       </c>
       <c r="C30">
-        <v>0.03261888</v>
+        <v>0.01020096000000001</v>
       </c>
       <c r="D30">
-        <v>0.2275394365399799</v>
+        <v>0.07115881019111842</v>
       </c>
       <c r="E30">
-        <v>0.394962126251143</v>
+        <v>0.1235172038832375</v>
       </c>
       <c r="F30">
-        <v>0.1843379988664469</v>
+        <v>0.05764834822399388</v>
       </c>
       <c r="G30">
-        <v>0.266951539790606</v>
+        <v>0.08348422690608565</v>
       </c>
       <c r="H30">
-        <v>0.08642834196911983</v>
+        <v>0.02702888815597937</v>
       </c>
       <c r="I30">
-        <v>4.666625560900012</v>
+        <v>1.459402060454516</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>3.629758779457128</v>
+        <v>1.135140879113293</v>
       </c>
       <c r="C31">
-        <v>0.03960864</v>
+        <v>0.01238688000000001</v>
       </c>
       <c r="D31">
-        <v>0.1879673606199834</v>
+        <v>0.0587833649404892</v>
       </c>
       <c r="E31">
-        <v>0.4579271028998757</v>
+        <v>0.1432083523283913</v>
       </c>
       <c r="F31">
-        <v>0.1328469377305679</v>
+        <v>0.04154545765863243</v>
       </c>
       <c r="G31">
-        <v>0.1241635068793516</v>
+        <v>0.03882987297957469</v>
       </c>
       <c r="H31">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I31">
-        <v>4.586677051248427</v>
+        <v>1.434399621713044</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>2.734974670235507</v>
+        <v>0.8553134630031936</v>
       </c>
       <c r="C32">
-        <v>0.02096928</v>
+        <v>0.006557759999999999</v>
       </c>
       <c r="D32">
-        <v>0.1286092467399887</v>
+        <v>0.04022019706454529</v>
       </c>
       <c r="E32">
-        <v>0.3205489720299131</v>
+        <v>0.1002458466298739</v>
       </c>
       <c r="F32">
-        <v>0.07723659170381852</v>
+        <v>0.02415433584804215</v>
       </c>
       <c r="G32">
-        <v>0.1614125589431569</v>
+        <v>0.05047883487344711</v>
       </c>
       <c r="H32">
-        <v>0.03601180915379991</v>
+        <v>0.01126203673165808</v>
       </c>
       <c r="I32">
-        <v>3.479763128806184</v>
+        <v>1.08823247415076</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>2.128874730808628</v>
+        <v>0.6657667575952824</v>
       </c>
       <c r="C33">
-        <v>0.03727872</v>
+        <v>0.01165824</v>
       </c>
       <c r="D33">
-        <v>0.1352045927266547</v>
+        <v>0.04228277127298347</v>
       </c>
       <c r="E33">
-        <v>0.4178584813961368</v>
+        <v>0.1306776214996571</v>
       </c>
       <c r="F33">
-        <v>0.06693837947664277</v>
+        <v>0.02093375773496985</v>
       </c>
       <c r="G33">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H33">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I33">
-        <v>2.900884620059857</v>
+        <v>0.9071987748765689</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.712950618876866</v>
+        <v>0.5356940748774379</v>
       </c>
       <c r="C34">
-        <v>0.02562911999999998</v>
+        <v>0.008015040000000005</v>
       </c>
       <c r="D34">
-        <v>0.1088232087799905</v>
+        <v>0.03403247443923061</v>
       </c>
       <c r="E34">
-        <v>0.269032172953677</v>
+        <v>0.0841349069929299</v>
       </c>
       <c r="F34">
-        <v>0.03810338524055046</v>
+        <v>0.01191613901836745</v>
       </c>
       <c r="G34">
-        <v>0.08691445481554606</v>
+        <v>0.02718091108570233</v>
       </c>
       <c r="H34">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I34">
-        <v>2.25585768432815</v>
+        <v>0.7054783611063314</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.219040735957897</v>
+        <v>0.3812327641499976</v>
       </c>
       <c r="C35">
-        <v>0.03494879999999998</v>
+        <v>0.0109296</v>
       </c>
       <c r="D35">
-        <v>0.08244182483332606</v>
+        <v>0.02578217760547772</v>
       </c>
       <c r="E35">
-        <v>0.1602744860149565</v>
+        <v>0.05012292331493695</v>
       </c>
       <c r="F35">
-        <v>0.03295427912696255</v>
+        <v>0.01030584996183131</v>
       </c>
       <c r="G35">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H35">
-        <v>0.02160708549227996</v>
+        <v>0.006757222038994842</v>
       </c>
       <c r="I35">
-        <v>1.644389841584936</v>
+        <v>0.5142529418059195</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.7278671958805849</v>
+        <v>0.2276271947562276</v>
       </c>
       <c r="C36">
-        <v>0.04543344000000001</v>
+        <v>0.01420848</v>
       </c>
       <c r="D36">
-        <v>0.0296790569399974</v>
+        <v>0.009281583937971983</v>
       </c>
       <c r="E36">
-        <v>0.0973095093662236</v>
+        <v>0.03043177486978316</v>
       </c>
       <c r="F36">
-        <v>0.0308946366815274</v>
+        <v>0.009661734339216859</v>
       </c>
       <c r="G36">
-        <v>0.06828992878364336</v>
+        <v>0.02135643013876611</v>
       </c>
       <c r="H36">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I36">
-        <v>1.006676129482737</v>
+        <v>0.3148196053882973</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.5828410252728</v>
+        <v>0.1822729040717161</v>
       </c>
       <c r="C37">
-        <v>0.03378384</v>
+        <v>0.01056528</v>
       </c>
       <c r="D37">
-        <v>0.02638138394666431</v>
+        <v>0.008250296833752875</v>
       </c>
       <c r="E37">
-        <v>0.06296497664873292</v>
+        <v>0.0196911484451538</v>
       </c>
       <c r="F37">
-        <v>0.02883499423609225</v>
+        <v>0.00901761871660239</v>
       </c>
       <c r="G37">
-        <v>0.08070627947157846</v>
+        <v>0.02523941743672355</v>
       </c>
       <c r="H37">
-        <v>0.03601180915379991</v>
+        <v>0.01126203673165808</v>
       </c>
       <c r="I37">
-        <v>0.8515243087296679</v>
+        <v>0.2662987022356068</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.3064703982655095</v>
+        <v>0.09584302937104325</v>
       </c>
       <c r="C38">
-        <v>0.03960864</v>
+        <v>0.01238688000000001</v>
       </c>
       <c r="D38">
-        <v>0.01978603795999823</v>
+        <v>0.006187722625314645</v>
       </c>
       <c r="E38">
-        <v>0.0114481775724969</v>
+        <v>0.003580208808209783</v>
       </c>
       <c r="F38">
-        <v>0.02677535179065709</v>
+        <v>0.008373503093987943</v>
       </c>
       <c r="G38">
-        <v>0.1365798575672867</v>
+        <v>0.04271286027753222</v>
       </c>
       <c r="H38">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I38">
-        <v>0.5478708249867085</v>
+        <v>0.1713366115224194</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.2024893702825689</v>
+        <v>0.06332485869158216</v>
       </c>
       <c r="C39">
-        <v>0.02213424</v>
+        <v>0.006922079999999998</v>
       </c>
       <c r="D39">
-        <v>0.01978603795999823</v>
+        <v>0.006187722625314645</v>
       </c>
       <c r="E39">
-        <v>0.0114481775724969</v>
+        <v>0.003580208808209783</v>
       </c>
       <c r="F39">
-        <v>0.01647713956348127</v>
+        <v>0.005152924980915656</v>
       </c>
       <c r="G39">
-        <v>0.09312263015951371</v>
+        <v>0.02912240473468104</v>
       </c>
       <c r="H39">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I39">
-        <v>0.3726599573688191</v>
+        <v>0.1165426071870349</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.2024893702825689</v>
+        <v>0.06332485869158216</v>
       </c>
       <c r="C40">
-        <v>0.01397952</v>
+        <v>0.004371839999999998</v>
       </c>
       <c r="D40">
-        <v>0.02308371095333128</v>
+        <v>0.007219009729533764</v>
       </c>
       <c r="E40">
-        <v>0.03434453271749069</v>
+        <v>0.01074062642462935</v>
       </c>
       <c r="F40">
-        <v>0.02780517301337468</v>
+        <v>0.008695560905295167</v>
       </c>
       <c r="G40">
-        <v>0.1489962082552218</v>
+        <v>0.04659584757548968</v>
       </c>
       <c r="H40">
-        <v>0.007202361830759987</v>
+        <v>0.002252407346331615</v>
       </c>
       <c r="I40">
-        <v>0.4579008770527474</v>
+        <v>0.1432001506728617</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.4665464545024053</v>
+        <v>0.1459038973907399</v>
       </c>
       <c r="C41">
-        <v>0.0116496</v>
+        <v>0.003643200000000001</v>
       </c>
       <c r="D41">
-        <v>0.05606044088666165</v>
+        <v>0.01753188077172484</v>
       </c>
       <c r="E41">
-        <v>0.03434453271749069</v>
+        <v>0.01074062642462935</v>
       </c>
       <c r="F41">
-        <v>0.04325249135413839</v>
+        <v>0.0135264280749036</v>
       </c>
       <c r="G41">
-        <v>0.2855760658225084</v>
+        <v>0.08930870785302181</v>
       </c>
       <c r="H41">
-        <v>0.01440472366151997</v>
+        <v>0.004504814692663231</v>
       </c>
       <c r="I41">
-        <v>0.9118343089447244</v>
+        <v>0.2851595552076828</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.9905561086795943</v>
+        <v>0.3097783627885505</v>
       </c>
       <c r="C42">
-        <v>0.003494879999999999</v>
+        <v>0.00109296</v>
       </c>
       <c r="D42">
-        <v>0.07584647884665985</v>
+        <v>0.02371960339703948</v>
       </c>
       <c r="E42">
-        <v>0.2289635514499379</v>
+        <v>0.07160417616419565</v>
       </c>
       <c r="F42">
-        <v>0.08650498270827678</v>
+        <v>0.0270528561498072</v>
       </c>
       <c r="G42">
-        <v>0.3166169425423467</v>
+        <v>0.09901617609791555</v>
       </c>
       <c r="H42">
-        <v>0.02880944732303995</v>
+        <v>0.009009629385326462</v>
       </c>
       <c r="I42">
-        <v>1.730792391549856</v>
+        <v>0.5412737639828348</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.834717875330574</v>
+        <v>0.5737745642257542</v>
       </c>
       <c r="C43">
-        <v>0.01630944</v>
+        <v>0.005100480000000003</v>
       </c>
       <c r="D43">
-        <v>0.1846696876266502</v>
+        <v>0.05775207783627011</v>
       </c>
       <c r="E43">
-        <v>0.549512523479851</v>
+        <v>0.1718500227940696</v>
       </c>
       <c r="F43">
-        <v>0.1874274625345997</v>
+        <v>0.05861452165791557</v>
       </c>
       <c r="G43">
-        <v>0.4407804494216984</v>
+        <v>0.1378460490774903</v>
       </c>
       <c r="H43">
-        <v>0.1008330656306398</v>
+        <v>0.03153370284864261</v>
       </c>
       <c r="I43">
-        <v>3.314250504024013</v>
+        <v>1.036471418440142</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>3.103012782438285</v>
+        <v>0.9704106723818124</v>
       </c>
       <c r="C44">
-        <v>0.01397952</v>
+        <v>0.004371839999999998</v>
       </c>
       <c r="D44">
-        <v>0.2143487445666477</v>
+        <v>0.06703366177424212</v>
       </c>
       <c r="E44">
-        <v>0.6410979440598261</v>
+        <v>0.2004916932597478</v>
       </c>
       <c r="F44">
-        <v>0.1997853172072105</v>
+        <v>0.06247921539360233</v>
       </c>
       <c r="G44">
-        <v>0.6084011837088231</v>
+        <v>0.1902663775999161</v>
       </c>
       <c r="H44">
-        <v>0.1512495984459598</v>
+        <v>0.04730055427296392</v>
       </c>
       <c r="I44">
-        <v>4.931875090426751</v>
+        <v>1.542354014682285</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>3.509359694424251</v>
+        <v>1.097488260431811</v>
       </c>
       <c r="C45">
-        <v>0.04077359999999999</v>
+        <v>0.0127512</v>
       </c>
       <c r="D45">
-        <v>0.2605161664733102</v>
+        <v>0.08147168123330953</v>
       </c>
       <c r="E45">
-        <v>0.4579271028998757</v>
+        <v>0.1432083523283913</v>
       </c>
       <c r="F45">
-        <v>0.2255308477751502</v>
+        <v>0.070530660676283</v>
       </c>
       <c r="G45">
-        <v>0.6642747618045305</v>
+        <v>0.2077398204407248</v>
       </c>
       <c r="H45">
-        <v>0.1224401511229198</v>
+        <v>0.03829092488763743</v>
       </c>
       <c r="I45">
-        <v>5.280822324500038</v>
+        <v>1.651480899998158</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>2.810224098381057</v>
+        <v>0.8788463496791186</v>
       </c>
       <c r="C46">
-        <v>0.05009328</v>
+        <v>0.01566576</v>
       </c>
       <c r="D46">
-        <v>0.3033859153866394</v>
+        <v>0.09487841358815792</v>
       </c>
       <c r="E46">
-        <v>0.3205489720299131</v>
+        <v>0.1002458466298739</v>
       </c>
       <c r="F46">
-        <v>0.2729026240201587</v>
+        <v>0.08534531999641556</v>
       </c>
       <c r="G46">
-        <v>1.011932581066715</v>
+        <v>0.3164634647835335</v>
       </c>
       <c r="H46">
-        <v>0.1224401511229198</v>
+        <v>0.03829092488763743</v>
       </c>
       <c r="I46">
-        <v>4.891527622007404</v>
+        <v>1.529736079564737</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>2.122033873704488</v>
+        <v>0.6636274042611074</v>
       </c>
       <c r="C47">
-        <v>0.05591807999999998</v>
+        <v>0.01748735999999999</v>
       </c>
       <c r="D47">
-        <v>0.2242417635466466</v>
+        <v>0.07012752308689936</v>
       </c>
       <c r="E47">
-        <v>0.2117912850911924</v>
+        <v>0.06623386295188098</v>
       </c>
       <c r="F47">
-        <v>0.2914394060290753</v>
+        <v>0.09114236059994565</v>
       </c>
       <c r="G47">
-        <v>0.7698137426519798</v>
+        <v>0.2407452124733633</v>
       </c>
       <c r="H47">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I47">
-        <v>3.768868854823262</v>
+        <v>1.178645018875508</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>2.189074273325066</v>
+        <v>0.6845930669360225</v>
       </c>
       <c r="C48">
-        <v>0.03378384</v>
+        <v>0.01056528</v>
       </c>
       <c r="D48">
-        <v>0.2440278015066448</v>
+        <v>0.0763152457122141</v>
       </c>
       <c r="E48">
-        <v>0.2346876402361864</v>
+        <v>0.07339428056830057</v>
       </c>
       <c r="F48">
-        <v>0.2976183333653806</v>
+        <v>0.09307470746778905</v>
       </c>
       <c r="G48">
-        <v>1.105055211226229</v>
+        <v>0.3455858695182149</v>
       </c>
       <c r="H48">
-        <v>0.07922598013835987</v>
+        <v>0.02477648080964776</v>
       </c>
       <c r="I48">
-        <v>4.183473079797866</v>
+        <v>1.308304931012189</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>2.258851015787305</v>
+        <v>0.7064144709446086</v>
       </c>
       <c r="C49">
-        <v>0.04776335999999998</v>
+        <v>0.01493712</v>
       </c>
       <c r="D49">
-        <v>0.1879673606199834</v>
+        <v>0.0587833649404892</v>
       </c>
       <c r="E49">
-        <v>0.2518599065949317</v>
+        <v>0.07876459378061521</v>
       </c>
       <c r="F49">
-        <v>0.1894871049800347</v>
+        <v>0.05925863728053005</v>
       </c>
       <c r="G49">
-        <v>0.6704829371484987</v>
+        <v>0.2096813140897035</v>
       </c>
       <c r="H49">
-        <v>0.09363070379987984</v>
+        <v>0.029281295502311</v>
       </c>
       <c r="I49">
-        <v>3.700042388930633</v>
+        <v>1.157120796538258</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_SOx.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.7530523736296248</v>
+        <v>2.407981700657575</v>
       </c>
       <c r="C2">
-        <v>0.01748735999999999</v>
+        <v>0.05591807999999998</v>
       </c>
       <c r="D2">
-        <v>0.0721900972953376</v>
+        <v>0.230837109533313</v>
       </c>
       <c r="E2">
-        <v>0.0554932365272516</v>
+        <v>0.1774467523737019</v>
       </c>
       <c r="F2">
-        <v>0.07439535441196977</v>
+        <v>0.2378887024477611</v>
       </c>
       <c r="G2">
-        <v>0.1883248839509374</v>
+        <v>0.6021930083648551</v>
       </c>
       <c r="H2">
-        <v>0.03829092488763743</v>
+        <v>0.1224401511229198</v>
       </c>
       <c r="I2">
-        <v>1.199234230702759</v>
+        <v>3.834705504500126</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.7444949602929248</v>
+        <v>2.380618272241012</v>
       </c>
       <c r="C3">
-        <v>0.01858032</v>
+        <v>0.05941296000000001</v>
       </c>
       <c r="D3">
-        <v>0.08250296833752864</v>
+        <v>0.2638138394666432</v>
       </c>
       <c r="E3">
-        <v>0.05370313212314671</v>
+        <v>0.1717226635874535</v>
       </c>
       <c r="F3">
-        <v>0.07503947003458421</v>
+        <v>0.2399483448931962</v>
       </c>
       <c r="G3">
-        <v>0.2116228077386824</v>
+        <v>0.6766911124924655</v>
       </c>
       <c r="H3">
-        <v>0.04054333223396907</v>
+        <v>0.1296425129536798</v>
       </c>
       <c r="I3">
-        <v>1.226486990760836</v>
+        <v>3.921849705634449</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.8416216016644734</v>
+        <v>2.691193184769009</v>
       </c>
       <c r="C4">
-        <v>0.01894464</v>
+        <v>0.06057791999999998</v>
       </c>
       <c r="D4">
-        <v>0.08972197806706246</v>
+        <v>0.2868975504199743</v>
       </c>
       <c r="E4">
-        <v>0.0626536541436712</v>
+        <v>0.2003431075186956</v>
       </c>
       <c r="F4">
-        <v>0.0885658981094878</v>
+        <v>0.2832008362473348</v>
       </c>
       <c r="G4">
-        <v>0.1611439728652353</v>
+        <v>0.5152785535493093</v>
       </c>
       <c r="H4">
-        <v>0.02252407346331615</v>
+        <v>0.07202361830759982</v>
       </c>
       <c r="I4">
-        <v>1.285175818313246</v>
+        <v>4.109514770811923</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.9083694256907349</v>
+        <v>2.9046279264182</v>
       </c>
       <c r="C5">
-        <v>0.01202256</v>
+        <v>0.03844368000000001</v>
       </c>
       <c r="D5">
-        <v>0.09178455227550075</v>
+        <v>0.2934928964066407</v>
       </c>
       <c r="E5">
-        <v>0.06623386295188098</v>
+        <v>0.2117912850911924</v>
       </c>
       <c r="F5">
-        <v>0.07697181690242755</v>
+        <v>0.2461272722295015</v>
       </c>
       <c r="G5">
-        <v>0.1087236443428093</v>
+        <v>0.3476578192621843</v>
       </c>
       <c r="H5">
-        <v>0.01576685142432131</v>
+        <v>0.05041653281531991</v>
       </c>
       <c r="I5">
-        <v>1.279872713587675</v>
+        <v>4.092557412223039</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.103050579100667</v>
+        <v>3.527145922895015</v>
       </c>
       <c r="C6">
-        <v>0.01785168</v>
+        <v>0.05708304000000001</v>
       </c>
       <c r="D6">
-        <v>0.06497108756580389</v>
+        <v>0.2077533985799818</v>
       </c>
       <c r="E6">
-        <v>0.1235172038832375</v>
+        <v>0.394962126251143</v>
       </c>
       <c r="F6">
-        <v>0.05507188573353607</v>
+        <v>0.1760994290847061</v>
       </c>
       <c r="G6">
-        <v>0.06018630311834083</v>
+        <v>0.1924534356629949</v>
       </c>
       <c r="H6">
-        <v>0.04730055427296392</v>
+        <v>0.1512495984459598</v>
       </c>
       <c r="I6">
-        <v>1.47194929367455</v>
+        <v>4.706746950919801</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.101339096433326</v>
+        <v>3.521673237211703</v>
       </c>
       <c r="C7">
-        <v>0.009836640000000002</v>
+        <v>0.03145391999999999</v>
       </c>
       <c r="D7">
-        <v>0.04640791968985991</v>
+        <v>0.1483952846999868</v>
       </c>
       <c r="E7">
-        <v>0.1360479347119717</v>
+        <v>0.435030747754882</v>
       </c>
       <c r="F7">
-        <v>0.03156166550810838</v>
+        <v>0.1009224798263229</v>
       </c>
       <c r="G7">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H7">
-        <v>0.02702888815597937</v>
+        <v>0.08642834196911983</v>
       </c>
       <c r="I7">
-        <v>1.381344549233927</v>
+        <v>4.417026641621529</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.7693114589693556</v>
+        <v>2.459972214649046</v>
       </c>
       <c r="C8">
-        <v>0.01020096000000001</v>
+        <v>0.03261888</v>
       </c>
       <c r="D8">
-        <v>0.04022019706454529</v>
+        <v>0.1286092467399887</v>
       </c>
       <c r="E8">
-        <v>0.08771511580113964</v>
+        <v>0.2804803505261739</v>
       </c>
       <c r="F8">
-        <v>0.02415433584804215</v>
+        <v>0.07723659170381852</v>
       </c>
       <c r="G8">
-        <v>0.03494688568161722</v>
+        <v>0.1117471561914164</v>
       </c>
       <c r="H8">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I8">
-        <v>0.9688013607110315</v>
+        <v>3.097866801641203</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.628114138913801</v>
+        <v>2.00847564577575</v>
       </c>
       <c r="C9">
-        <v>0.009108</v>
+        <v>0.02912399999999999</v>
       </c>
       <c r="D9">
-        <v>0.02887603891813506</v>
+        <v>0.0923348438133251</v>
       </c>
       <c r="E9">
-        <v>0.1306776214996571</v>
+        <v>0.4178584813961368</v>
       </c>
       <c r="F9">
-        <v>0.01384848588621082</v>
+        <v>0.04428231257685593</v>
       </c>
       <c r="G9">
-        <v>0.01941493648978735</v>
+        <v>0.06208175343967581</v>
       </c>
       <c r="H9">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I9">
-        <v>0.8367964437465861</v>
+        <v>2.675764122494024</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.4646675441828252</v>
+        <v>1.485834163019391</v>
       </c>
       <c r="C10">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D10">
-        <v>0.02268831629282038</v>
+        <v>0.07254880585332689</v>
       </c>
       <c r="E10">
-        <v>0.08592501139703479</v>
+        <v>0.2747562617399255</v>
       </c>
       <c r="F10">
-        <v>0.01256025464098191</v>
+        <v>0.04016302768598561</v>
       </c>
       <c r="G10">
-        <v>0.01941493648978735</v>
+        <v>0.06208175343967581</v>
       </c>
       <c r="H10">
-        <v>0.009009629385326462</v>
+        <v>0.02880944732303995</v>
       </c>
       <c r="I10">
-        <v>0.6208234523887761</v>
+        <v>1.985162739061344</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.3564162654735668</v>
+        <v>1.139686793549864</v>
       </c>
       <c r="C11">
-        <v>0.01056528</v>
+        <v>0.03378384</v>
       </c>
       <c r="D11">
-        <v>0.02268831629282038</v>
+        <v>0.07254880585332689</v>
       </c>
       <c r="E11">
-        <v>0.0393822968903076</v>
+        <v>0.1259299532974658</v>
       </c>
       <c r="F11">
-        <v>0.01288231245228914</v>
+        <v>0.04119284890870323</v>
       </c>
       <c r="G11">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H11">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I11">
-        <v>0.4778140978826597</v>
+        <v>1.527871957261153</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.2194976520863622</v>
+        <v>0.7018719388848503</v>
       </c>
       <c r="C12">
-        <v>0.009836640000000002</v>
+        <v>0.03145391999999999</v>
       </c>
       <c r="D12">
-        <v>0.00515643552109554</v>
+        <v>0.0164883649666652</v>
       </c>
       <c r="E12">
-        <v>0.01432083523283913</v>
+        <v>0.0457927102899876</v>
       </c>
       <c r="F12">
-        <v>0.007729387471373483</v>
+        <v>0.02471570934522195</v>
       </c>
       <c r="G12">
-        <v>0.03106389838365978</v>
+        <v>0.09933080550348125</v>
       </c>
       <c r="I12">
-        <v>0.2876048486953302</v>
+        <v>0.9196534489902063</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.1369186133872043</v>
+        <v>0.437814854665014</v>
       </c>
       <c r="C13">
-        <v>0.01202256</v>
+        <v>0.03844368000000001</v>
       </c>
       <c r="D13">
-        <v>0.004125148416876437</v>
+        <v>0.01319069197333216</v>
       </c>
       <c r="E13">
-        <v>0.007160417616419567</v>
+        <v>0.0228963551449938</v>
       </c>
       <c r="F13">
-        <v>0.01030584996183131</v>
+        <v>0.03295427912696255</v>
       </c>
       <c r="G13">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H13">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I13">
-        <v>0.2019074014633443</v>
+        <v>0.6456248529005763</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.08600200403383784</v>
+        <v>0.2750024555864618</v>
       </c>
       <c r="C14">
-        <v>0.009836640000000002</v>
+        <v>0.03145391999999999</v>
       </c>
       <c r="D14">
-        <v>0.004125148416876437</v>
+        <v>0.01319069197333216</v>
       </c>
       <c r="E14">
-        <v>0.005370313212314674</v>
+        <v>0.01717226635874534</v>
       </c>
       <c r="F14">
-        <v>0.008695560905295167</v>
+        <v>0.02780517301337468</v>
       </c>
       <c r="G14">
-        <v>0.06212779676731957</v>
+        <v>0.1986616110069625</v>
       </c>
       <c r="H14">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I14">
-        <v>0.1784098706819753</v>
+        <v>0.5704884797696363</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.06375272935841711</v>
+        <v>0.2038575417033972</v>
       </c>
       <c r="C15">
-        <v>0.006193440000000003</v>
+        <v>0.01980432</v>
       </c>
       <c r="D15">
-        <v>0.003093861312657323</v>
+        <v>0.009893018979999115</v>
       </c>
       <c r="F15">
-        <v>0.005797040603530111</v>
+        <v>0.01853678200891645</v>
       </c>
       <c r="G15">
-        <v>0.04853734122446839</v>
+        <v>0.1552043835991893</v>
       </c>
       <c r="H15">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I15">
-        <v>0.1318792271917362</v>
+        <v>0.4217007699530221</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.06717569469309723</v>
+        <v>0.2148029130700225</v>
       </c>
       <c r="C16">
-        <v>0.00327888</v>
+        <v>0.01048464</v>
       </c>
       <c r="D16">
-        <v>0.01031287104219108</v>
+        <v>0.0329767299333304</v>
       </c>
       <c r="E16">
-        <v>0.008950522020524456</v>
+        <v>0.02862044393124223</v>
       </c>
       <c r="F16">
-        <v>0.0067632140374518</v>
+        <v>0.02162624567706919</v>
       </c>
       <c r="G16">
-        <v>0.05630331582038337</v>
+        <v>0.1800370849750597</v>
       </c>
       <c r="H16">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I16">
-        <v>0.1550369049599795</v>
+        <v>0.4957504194174839</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.15360556939377</v>
+        <v>0.4911735400773127</v>
       </c>
       <c r="C17">
-        <v>0.00327888</v>
+        <v>0.01048464</v>
       </c>
       <c r="D17">
-        <v>0.01031287104219108</v>
+        <v>0.0329767299333304</v>
       </c>
       <c r="E17">
-        <v>0.005370313212314674</v>
+        <v>0.01717226635874534</v>
       </c>
       <c r="F17">
-        <v>0.01223819682967468</v>
+        <v>0.03913320646326802</v>
       </c>
       <c r="G17">
-        <v>0.07571825231017071</v>
+        <v>0.2421188384147356</v>
       </c>
       <c r="H17">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I17">
-        <v>0.2650288974807843</v>
+        <v>0.8474639449089122</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.3277489307956211</v>
+        <v>1.048019308354377</v>
       </c>
       <c r="C18">
-        <v>0.0054648</v>
+        <v>0.01747439999999999</v>
       </c>
       <c r="D18">
-        <v>0.02165702918860128</v>
+        <v>0.06925113285999387</v>
       </c>
       <c r="E18">
-        <v>0.06086354973956631</v>
+        <v>0.1946190187324472</v>
       </c>
       <c r="F18">
-        <v>0.02834108739503611</v>
+        <v>0.0906242675991471</v>
       </c>
       <c r="G18">
-        <v>0.09901617609791555</v>
+        <v>0.3166169425423467</v>
       </c>
       <c r="H18">
-        <v>0.01351444407798968</v>
+        <v>0.04321417098455992</v>
       </c>
       <c r="I18">
-        <v>0.55660601729473</v>
+        <v>1.779819241072871</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.5716352108915786</v>
+        <v>1.827877018226431</v>
       </c>
       <c r="C19">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D19">
-        <v>0.05672079073205102</v>
+        <v>0.1813720146333173</v>
       </c>
       <c r="E19">
-        <v>0.1664797095817549</v>
+        <v>0.5323402571211056</v>
       </c>
       <c r="F19">
-        <v>0.05217336543177102</v>
+        <v>0.1668310380802479</v>
       </c>
       <c r="G19">
-        <v>0.1397875427264689</v>
+        <v>0.4469886247656656</v>
       </c>
       <c r="H19">
-        <v>0.02252407346331615</v>
+        <v>0.07202361830759982</v>
       </c>
       <c r="I19">
-        <v>1.01587845282694</v>
+        <v>3.248401851134368</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.9734057670496569</v>
+        <v>3.112589982384084</v>
       </c>
       <c r="C20">
-        <v>0.007286400000000002</v>
+        <v>0.0232992</v>
       </c>
       <c r="D20">
-        <v>0.07012752308689936</v>
+        <v>0.2242417635466466</v>
       </c>
       <c r="E20">
-        <v>0.1628995007735452</v>
+        <v>0.5208920795486087</v>
       </c>
       <c r="F20">
-        <v>0.05925863728053005</v>
+        <v>0.1894871049800347</v>
       </c>
       <c r="G20">
-        <v>0.1922078712488949</v>
+        <v>0.6146093590527905</v>
       </c>
       <c r="H20">
-        <v>0.04504814692663231</v>
+        <v>0.1440472366151996</v>
       </c>
       <c r="I20">
-        <v>1.510233846366159</v>
+        <v>4.829166726127364</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.026033859070364</v>
+        <v>3.280875067145947</v>
       </c>
       <c r="C21">
-        <v>0.0109296</v>
+        <v>0.03494879999999998</v>
       </c>
       <c r="D21">
-        <v>0.05568950362783191</v>
+        <v>0.178074341639984</v>
       </c>
       <c r="E21">
-        <v>0.1127765774586081</v>
+        <v>0.3606175935336523</v>
       </c>
       <c r="F21">
-        <v>0.05120719199784934</v>
+        <v>0.1637415744120953</v>
       </c>
       <c r="G21">
-        <v>0.1572609855672776</v>
+        <v>0.5028622028613736</v>
       </c>
       <c r="H21">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I21">
-        <v>1.445431420570574</v>
+        <v>4.621952645223692</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.8253625163247429</v>
+        <v>2.639202670777536</v>
       </c>
       <c r="C22">
-        <v>0.01566576</v>
+        <v>0.05009328</v>
       </c>
       <c r="D22">
-        <v>0.09694098779659616</v>
+        <v>0.3099812613733057</v>
       </c>
       <c r="E22">
-        <v>0.08771511580113964</v>
+        <v>0.2804803505261739</v>
       </c>
       <c r="F22">
-        <v>0.08598943561903001</v>
+        <v>0.2749622664655941</v>
       </c>
       <c r="G22">
-        <v>0.2776335918039593</v>
+        <v>0.8877690741873638</v>
       </c>
       <c r="H22">
-        <v>0.03829092488763743</v>
+        <v>0.1224401511229198</v>
       </c>
       <c r="I22">
-        <v>1.427598332233106</v>
+        <v>4.564929054452893</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.648224060255047</v>
+        <v>2.072779702554676</v>
       </c>
       <c r="C23">
-        <v>0.01566576</v>
+        <v>0.05009328</v>
       </c>
       <c r="D23">
-        <v>0.07837781992065231</v>
+        <v>0.2506231474933111</v>
       </c>
       <c r="E23">
-        <v>0.05370313212314671</v>
+        <v>0.1717226635874535</v>
       </c>
       <c r="F23">
-        <v>0.08470120437380106</v>
+        <v>0.2708429815747235</v>
       </c>
       <c r="G23">
-        <v>0.2698676172080444</v>
+        <v>0.8629363728114934</v>
       </c>
       <c r="H23">
-        <v>0.02252407346331615</v>
+        <v>0.07202361830759982</v>
       </c>
       <c r="I23">
-        <v>1.173063667344007</v>
+        <v>3.751021766329257</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.7363654176230596</v>
+        <v>2.354623015245278</v>
       </c>
       <c r="C24">
-        <v>0.01603008000000001</v>
+        <v>0.05125823999999997</v>
       </c>
       <c r="D24">
-        <v>0.08147168123330953</v>
+        <v>0.2605161664733102</v>
       </c>
       <c r="E24">
-        <v>0.08234480258882504</v>
+        <v>0.2633080841674287</v>
       </c>
       <c r="F24">
-        <v>0.08792178248687338</v>
+        <v>0.2811411938018993</v>
       </c>
       <c r="G24">
-        <v>0.2388037188243846</v>
+        <v>0.7636055673080121</v>
       </c>
       <c r="H24">
-        <v>0.04730055427296392</v>
+        <v>0.1512495984459598</v>
       </c>
       <c r="I24">
-        <v>1.290238037029416</v>
+        <v>4.125701865441888</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.7064144709446086</v>
+        <v>2.258851015787305</v>
       </c>
       <c r="C25">
-        <v>0.01493712</v>
+        <v>0.04776335999999998</v>
       </c>
       <c r="D25">
-        <v>0.0587833649404892</v>
+        <v>0.1879673606199834</v>
       </c>
       <c r="E25">
-        <v>0.07876459378061521</v>
+        <v>0.2518599065949317</v>
       </c>
       <c r="F25">
-        <v>0.05925863728053005</v>
+        <v>0.1894871049800347</v>
       </c>
       <c r="G25">
-        <v>0.2096813140897035</v>
+        <v>0.6704829371484987</v>
       </c>
       <c r="H25">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I25">
-        <v>1.157120796538258</v>
+        <v>3.700042388930633</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.7106931776129584</v>
+        <v>2.272532729995585</v>
       </c>
       <c r="C26">
-        <v>0.01311552</v>
+        <v>0.04193856</v>
       </c>
       <c r="D26">
-        <v>0.05568950362783191</v>
+        <v>0.178074341639984</v>
       </c>
       <c r="E26">
-        <v>0.0554932365272516</v>
+        <v>0.1774467523737019</v>
       </c>
       <c r="F26">
-        <v>0.07536152784589147</v>
+        <v>0.2409781661159139</v>
       </c>
       <c r="G26">
-        <v>0.2193887823345972</v>
+        <v>0.7015238138683355</v>
       </c>
       <c r="H26">
-        <v>0.04730055427296392</v>
+        <v>0.1512495984459598</v>
       </c>
       <c r="I26">
-        <v>1.177042302221494</v>
+        <v>3.76374396243948</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.76631636430151</v>
+        <v>2.45039501470325</v>
       </c>
       <c r="C27">
-        <v>0.01420848</v>
+        <v>0.04543344000000001</v>
       </c>
       <c r="D27">
-        <v>0.08869069096284346</v>
+        <v>0.2835998774266411</v>
       </c>
       <c r="E27">
-        <v>0.08055469818472009</v>
+        <v>0.2575839953811802</v>
       </c>
       <c r="F27">
-        <v>0.07278506535543365</v>
+        <v>0.2327395963341731</v>
       </c>
       <c r="G27">
-        <v>0.1708514411101289</v>
+        <v>0.5463194302691469</v>
       </c>
       <c r="H27">
-        <v>0.03378611019497421</v>
+        <v>0.1080354274613998</v>
       </c>
       <c r="I27">
-        <v>1.22719285010961</v>
+        <v>3.924106781575792</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.7872820269764266</v>
+        <v>2.517435414323829</v>
       </c>
       <c r="C28">
-        <v>0.01238688000000001</v>
+        <v>0.03960864</v>
       </c>
       <c r="D28">
-        <v>0.09178455227550075</v>
+        <v>0.2934928964066407</v>
       </c>
       <c r="E28">
-        <v>0.06444375854777611</v>
+        <v>0.2060671963049441</v>
       </c>
       <c r="F28">
-        <v>0.0711747762988974</v>
+        <v>0.2275904902205853</v>
       </c>
       <c r="G28">
-        <v>0.2019153394937884</v>
+        <v>0.6456502357726277</v>
       </c>
       <c r="H28">
-        <v>0.03378611019497421</v>
+        <v>0.1080354274613998</v>
       </c>
       <c r="I28">
-        <v>1.262773443787363</v>
+        <v>4.037880300490026</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.9087972963575702</v>
+        <v>2.90599609783903</v>
       </c>
       <c r="C29">
-        <v>0.01202256</v>
+        <v>0.03844368000000001</v>
       </c>
       <c r="D29">
-        <v>0.06909623598268028</v>
+        <v>0.2209440905533138</v>
       </c>
       <c r="E29">
-        <v>0.08771511580113964</v>
+        <v>0.2804803505261739</v>
       </c>
       <c r="F29">
-        <v>0.06666596694059627</v>
+        <v>0.2131729931025392</v>
       </c>
       <c r="G29">
-        <v>0.1378460490774903</v>
+        <v>0.4407804494216984</v>
       </c>
       <c r="H29">
-        <v>0.04279573958030068</v>
+        <v>0.1368448747844398</v>
       </c>
       <c r="I29">
-        <v>1.324938963739777</v>
+        <v>4.236662536227195</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.086363623094101</v>
+        <v>3.473787237482718</v>
       </c>
       <c r="C30">
-        <v>0.01020096000000001</v>
+        <v>0.03261888</v>
       </c>
       <c r="D30">
-        <v>0.07115881019111842</v>
+        <v>0.2275394365399799</v>
       </c>
       <c r="E30">
-        <v>0.1235172038832375</v>
+        <v>0.394962126251143</v>
       </c>
       <c r="F30">
-        <v>0.05764834822399388</v>
+        <v>0.1843379988664469</v>
       </c>
       <c r="G30">
-        <v>0.08348422690608565</v>
+        <v>0.266951539790606</v>
       </c>
       <c r="H30">
-        <v>0.02702888815597937</v>
+        <v>0.08642834196911983</v>
       </c>
       <c r="I30">
-        <v>1.459402060454516</v>
+        <v>4.666625560900012</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.135140879113293</v>
+        <v>3.629758779457128</v>
       </c>
       <c r="C31">
-        <v>0.01238688000000001</v>
+        <v>0.03960864</v>
       </c>
       <c r="D31">
-        <v>0.0587833649404892</v>
+        <v>0.1879673606199834</v>
       </c>
       <c r="E31">
-        <v>0.1432083523283913</v>
+        <v>0.4579271028998757</v>
       </c>
       <c r="F31">
-        <v>0.04154545765863243</v>
+        <v>0.1328469377305679</v>
       </c>
       <c r="G31">
-        <v>0.03882987297957469</v>
+        <v>0.1241635068793516</v>
       </c>
       <c r="H31">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I31">
-        <v>1.434399621713044</v>
+        <v>4.586677051248427</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.8553134630031936</v>
+        <v>2.734974670235507</v>
       </c>
       <c r="C32">
-        <v>0.006557759999999999</v>
+        <v>0.02096928</v>
       </c>
       <c r="D32">
-        <v>0.04022019706454529</v>
+        <v>0.1286092467399887</v>
       </c>
       <c r="E32">
-        <v>0.1002458466298739</v>
+        <v>0.3205489720299131</v>
       </c>
       <c r="F32">
-        <v>0.02415433584804215</v>
+        <v>0.07723659170381852</v>
       </c>
       <c r="G32">
-        <v>0.05047883487344711</v>
+        <v>0.1614125589431569</v>
       </c>
       <c r="H32">
-        <v>0.01126203673165808</v>
+        <v>0.03601180915379991</v>
       </c>
       <c r="I32">
-        <v>1.08823247415076</v>
+        <v>3.479763128806184</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.6657667575952824</v>
+        <v>2.128874730808628</v>
       </c>
       <c r="C33">
-        <v>0.01165824</v>
+        <v>0.03727872</v>
       </c>
       <c r="D33">
-        <v>0.04228277127298347</v>
+        <v>0.1352045927266547</v>
       </c>
       <c r="E33">
-        <v>0.1306776214996571</v>
+        <v>0.4178584813961368</v>
       </c>
       <c r="F33">
-        <v>0.02093375773496985</v>
+        <v>0.06693837947664277</v>
       </c>
       <c r="G33">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H33">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I33">
-        <v>0.9071987748765689</v>
+        <v>2.900884620059857</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.5356940748774379</v>
+        <v>1.712950618876866</v>
       </c>
       <c r="C34">
-        <v>0.008015040000000005</v>
+        <v>0.02562911999999998</v>
       </c>
       <c r="D34">
-        <v>0.03403247443923061</v>
+        <v>0.1088232087799905</v>
       </c>
       <c r="E34">
-        <v>0.0841349069929299</v>
+        <v>0.269032172953677</v>
       </c>
       <c r="F34">
-        <v>0.01191613901836745</v>
+        <v>0.03810338524055046</v>
       </c>
       <c r="G34">
-        <v>0.02718091108570233</v>
+        <v>0.08691445481554606</v>
       </c>
       <c r="H34">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I34">
-        <v>0.7054783611063314</v>
+        <v>2.25585768432815</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.3812327641499976</v>
+        <v>1.219040735957897</v>
       </c>
       <c r="C35">
-        <v>0.0109296</v>
+        <v>0.03494879999999998</v>
       </c>
       <c r="D35">
-        <v>0.02578217760547772</v>
+        <v>0.08244182483332606</v>
       </c>
       <c r="E35">
-        <v>0.05012292331493695</v>
+        <v>0.1602744860149565</v>
       </c>
       <c r="F35">
-        <v>0.01030584996183131</v>
+        <v>0.03295427912696255</v>
       </c>
       <c r="G35">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H35">
-        <v>0.006757222038994842</v>
+        <v>0.02160708549227996</v>
       </c>
       <c r="I35">
-        <v>0.5142529418059195</v>
+        <v>1.644389841584936</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.2276271947562276</v>
+        <v>0.7278671958805849</v>
       </c>
       <c r="C36">
-        <v>0.01420848</v>
+        <v>0.04543344000000001</v>
       </c>
       <c r="D36">
-        <v>0.009281583937971983</v>
+        <v>0.0296790569399974</v>
       </c>
       <c r="E36">
-        <v>0.03043177486978316</v>
+        <v>0.0973095093662236</v>
       </c>
       <c r="F36">
-        <v>0.009661734339216859</v>
+        <v>0.0308946366815274</v>
       </c>
       <c r="G36">
-        <v>0.02135643013876611</v>
+        <v>0.06828992878364336</v>
       </c>
       <c r="H36">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I36">
-        <v>0.3148196053882973</v>
+        <v>1.006676129482737</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.1822729040717161</v>
+        <v>0.5828410252728</v>
       </c>
       <c r="C37">
-        <v>0.01056528</v>
+        <v>0.03378384</v>
       </c>
       <c r="D37">
-        <v>0.008250296833752875</v>
+        <v>0.02638138394666431</v>
       </c>
       <c r="E37">
-        <v>0.0196911484451538</v>
+        <v>0.06296497664873292</v>
       </c>
       <c r="F37">
-        <v>0.00901761871660239</v>
+        <v>0.02883499423609225</v>
       </c>
       <c r="G37">
-        <v>0.02523941743672355</v>
+        <v>0.08070627947157846</v>
       </c>
       <c r="H37">
-        <v>0.01126203673165808</v>
+        <v>0.03601180915379991</v>
       </c>
       <c r="I37">
-        <v>0.2662987022356068</v>
+        <v>0.8515243087296679</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.09584302937104325</v>
+        <v>0.3064703982655095</v>
       </c>
       <c r="C38">
-        <v>0.01238688000000001</v>
+        <v>0.03960864</v>
       </c>
       <c r="D38">
-        <v>0.006187722625314645</v>
+        <v>0.01978603795999823</v>
       </c>
       <c r="E38">
-        <v>0.003580208808209783</v>
+        <v>0.0114481775724969</v>
       </c>
       <c r="F38">
-        <v>0.008373503093987943</v>
+        <v>0.02677535179065709</v>
       </c>
       <c r="G38">
-        <v>0.04271286027753222</v>
+        <v>0.1365798575672867</v>
       </c>
       <c r="H38">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I38">
-        <v>0.1713366115224194</v>
+        <v>0.5478708249867085</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.06332485869158216</v>
+        <v>0.2024893702825689</v>
       </c>
       <c r="C39">
-        <v>0.006922079999999998</v>
+        <v>0.02213424</v>
       </c>
       <c r="D39">
-        <v>0.006187722625314645</v>
+        <v>0.01978603795999823</v>
       </c>
       <c r="E39">
-        <v>0.003580208808209783</v>
+        <v>0.0114481775724969</v>
       </c>
       <c r="F39">
-        <v>0.005152924980915656</v>
+        <v>0.01647713956348127</v>
       </c>
       <c r="G39">
-        <v>0.02912240473468104</v>
+        <v>0.09312263015951371</v>
       </c>
       <c r="H39">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I39">
-        <v>0.1165426071870349</v>
+        <v>0.3726599573688191</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.06332485869158216</v>
+        <v>0.2024893702825689</v>
       </c>
       <c r="C40">
-        <v>0.004371839999999998</v>
+        <v>0.01397952</v>
       </c>
       <c r="D40">
-        <v>0.007219009729533764</v>
+        <v>0.02308371095333128</v>
       </c>
       <c r="E40">
-        <v>0.01074062642462935</v>
+        <v>0.03434453271749069</v>
       </c>
       <c r="F40">
-        <v>0.008695560905295167</v>
+        <v>0.02780517301337468</v>
       </c>
       <c r="G40">
-        <v>0.04659584757548968</v>
+        <v>0.1489962082552218</v>
       </c>
       <c r="H40">
-        <v>0.002252407346331615</v>
+        <v>0.007202361830759987</v>
       </c>
       <c r="I40">
-        <v>0.1432001506728617</v>
+        <v>0.4579008770527474</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.1459038973907399</v>
+        <v>0.4665464545024053</v>
       </c>
       <c r="C41">
-        <v>0.003643200000000001</v>
+        <v>0.0116496</v>
       </c>
       <c r="D41">
-        <v>0.01753188077172484</v>
+        <v>0.05606044088666165</v>
       </c>
       <c r="E41">
-        <v>0.01074062642462935</v>
+        <v>0.03434453271749069</v>
       </c>
       <c r="F41">
-        <v>0.0135264280749036</v>
+        <v>0.04325249135413839</v>
       </c>
       <c r="G41">
-        <v>0.08930870785302181</v>
+        <v>0.2855760658225084</v>
       </c>
       <c r="H41">
-        <v>0.004504814692663231</v>
+        <v>0.01440472366151997</v>
       </c>
       <c r="I41">
-        <v>0.2851595552076828</v>
+        <v>0.9118343089447244</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.3097783627885505</v>
+        <v>0.9905561086795943</v>
       </c>
       <c r="C42">
-        <v>0.00109296</v>
+        <v>0.003494879999999999</v>
       </c>
       <c r="D42">
-        <v>0.02371960339703948</v>
+        <v>0.07584647884665985</v>
       </c>
       <c r="E42">
-        <v>0.07160417616419565</v>
+        <v>0.2289635514499379</v>
       </c>
       <c r="F42">
-        <v>0.0270528561498072</v>
+        <v>0.08650498270827678</v>
       </c>
       <c r="G42">
-        <v>0.09901617609791555</v>
+        <v>0.3166169425423467</v>
       </c>
       <c r="H42">
-        <v>0.009009629385326462</v>
+        <v>0.02880944732303995</v>
       </c>
       <c r="I42">
-        <v>0.5412737639828348</v>
+        <v>1.730792391549856</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.5737745642257542</v>
+        <v>1.834717875330574</v>
       </c>
       <c r="C43">
-        <v>0.005100480000000003</v>
+        <v>0.01630944</v>
       </c>
       <c r="D43">
-        <v>0.05775207783627011</v>
+        <v>0.1846696876266502</v>
       </c>
       <c r="E43">
-        <v>0.1718500227940696</v>
+        <v>0.549512523479851</v>
       </c>
       <c r="F43">
-        <v>0.05861452165791557</v>
+        <v>0.1874274625345997</v>
       </c>
       <c r="G43">
-        <v>0.1378460490774903</v>
+        <v>0.4407804494216984</v>
       </c>
       <c r="H43">
-        <v>0.03153370284864261</v>
+        <v>0.1008330656306398</v>
       </c>
       <c r="I43">
-        <v>1.036471418440142</v>
+        <v>3.314250504024013</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.9704106723818124</v>
+        <v>3.103012782438285</v>
       </c>
       <c r="C44">
-        <v>0.004371839999999998</v>
+        <v>0.01397952</v>
       </c>
       <c r="D44">
-        <v>0.06703366177424212</v>
+        <v>0.2143487445666477</v>
       </c>
       <c r="E44">
-        <v>0.2004916932597478</v>
+        <v>0.6410979440598261</v>
       </c>
       <c r="F44">
-        <v>0.06247921539360233</v>
+        <v>0.1997853172072105</v>
       </c>
       <c r="G44">
-        <v>0.1902663775999161</v>
+        <v>0.6084011837088231</v>
       </c>
       <c r="H44">
-        <v>0.04730055427296392</v>
+        <v>0.1512495984459598</v>
       </c>
       <c r="I44">
-        <v>1.542354014682285</v>
+        <v>4.931875090426751</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.097488260431811</v>
+        <v>3.509359694424251</v>
       </c>
       <c r="C45">
-        <v>0.0127512</v>
+        <v>0.04077359999999999</v>
       </c>
       <c r="D45">
-        <v>0.08147168123330953</v>
+        <v>0.2605161664733102</v>
       </c>
       <c r="E45">
-        <v>0.1432083523283913</v>
+        <v>0.4579271028998757</v>
       </c>
       <c r="F45">
-        <v>0.070530660676283</v>
+        <v>0.2255308477751502</v>
       </c>
       <c r="G45">
-        <v>0.2077398204407248</v>
+        <v>0.6642747618045305</v>
       </c>
       <c r="H45">
-        <v>0.03829092488763743</v>
+        <v>0.1224401511229198</v>
       </c>
       <c r="I45">
-        <v>1.651480899998158</v>
+        <v>5.280822324500038</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.8788463496791186</v>
+        <v>2.810224098381057</v>
       </c>
       <c r="C46">
-        <v>0.01566576</v>
+        <v>0.05009328</v>
       </c>
       <c r="D46">
-        <v>0.09487841358815792</v>
+        <v>0.3033859153866394</v>
       </c>
       <c r="E46">
-        <v>0.1002458466298739</v>
+        <v>0.3205489720299131</v>
       </c>
       <c r="F46">
-        <v>0.08534531999641556</v>
+        <v>0.2729026240201587</v>
       </c>
       <c r="G46">
-        <v>0.3164634647835335</v>
+        <v>1.011932581066715</v>
       </c>
       <c r="H46">
-        <v>0.03829092488763743</v>
+        <v>0.1224401511229198</v>
       </c>
       <c r="I46">
-        <v>1.529736079564737</v>
+        <v>4.891527622007404</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.6636274042611074</v>
+        <v>2.122033873704488</v>
       </c>
       <c r="C47">
-        <v>0.01748735999999999</v>
+        <v>0.05591807999999998</v>
       </c>
       <c r="D47">
-        <v>0.07012752308689936</v>
+        <v>0.2242417635466466</v>
       </c>
       <c r="E47">
-        <v>0.06623386295188098</v>
+        <v>0.2117912850911924</v>
       </c>
       <c r="F47">
-        <v>0.09114236059994565</v>
+        <v>0.2914394060290753</v>
       </c>
       <c r="G47">
-        <v>0.2407452124733633</v>
+        <v>0.7698137426519798</v>
       </c>
       <c r="H47">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I47">
-        <v>1.178645018875508</v>
+        <v>3.768868854823262</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.6845930669360225</v>
+        <v>2.189074273325066</v>
       </c>
       <c r="C48">
-        <v>0.01056528</v>
+        <v>0.03378384</v>
       </c>
       <c r="D48">
-        <v>0.0763152457122141</v>
+        <v>0.2440278015066448</v>
       </c>
       <c r="E48">
-        <v>0.07339428056830057</v>
+        <v>0.2346876402361864</v>
       </c>
       <c r="F48">
-        <v>0.09307470746778905</v>
+        <v>0.2976183333653806</v>
       </c>
       <c r="G48">
-        <v>0.3455858695182149</v>
+        <v>1.105055211226229</v>
       </c>
       <c r="H48">
-        <v>0.02477648080964776</v>
+        <v>0.07922598013835987</v>
       </c>
       <c r="I48">
-        <v>1.308304931012189</v>
+        <v>4.183473079797866</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.7064144709446086</v>
+        <v>2.258851015787305</v>
       </c>
       <c r="C49">
-        <v>0.01493712</v>
+        <v>0.04776335999999998</v>
       </c>
       <c r="D49">
-        <v>0.0587833649404892</v>
+        <v>0.1879673606199834</v>
       </c>
       <c r="E49">
-        <v>0.07876459378061521</v>
+        <v>0.2518599065949317</v>
       </c>
       <c r="F49">
-        <v>0.05925863728053005</v>
+        <v>0.1894871049800347</v>
       </c>
       <c r="G49">
-        <v>0.2096813140897035</v>
+        <v>0.6704829371484987</v>
       </c>
       <c r="H49">
-        <v>0.029281295502311</v>
+        <v>0.09363070379987984</v>
       </c>
       <c r="I49">
-        <v>1.157120796538258</v>
+        <v>3.700042388930633</v>
       </c>
     </row>
   </sheetData>
